--- a/bin/FormTestRunning_IOmap.xlsx
+++ b/bin/FormTestRunning_IOmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuYX\Documents\Visual Studio 2015\Projects\5A__Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiuYX\Documents\Visual Studio 2015\Projects\HyTestBuilder\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB4A001-46A7-443E-A86E-232E5F2E6F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4C956-E2AA-4E71-A68D-A5DCE164A3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>DI3</t>
+  </si>
+  <si>
+    <t>DI4</t>
+  </si>
+  <si>
+    <t>DI5</t>
+  </si>
+  <si>
+    <t>DI6</t>
+  </si>
+  <si>
+    <t>DI7</t>
+  </si>
+  <si>
+    <t>DI8</t>
+  </si>
+  <si>
+    <t>DI9</t>
+  </si>
+  <si>
+    <t>DI10</t>
+  </si>
+  <si>
+    <t>DI11</t>
+  </si>
+  <si>
+    <t>DI12</t>
+  </si>
+  <si>
+    <t>DI13</t>
+  </si>
+  <si>
+    <t>DI14</t>
+  </si>
+  <si>
+    <t>DI15</t>
+  </si>
+  <si>
+    <t>DI16</t>
+  </si>
+  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -72,6 +137,34 @@
     <t>1-8</t>
   </si>
   <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>DO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DO2</t>
   </si>
   <si>
@@ -93,29 +186,85 @@
     <t>DO8</t>
   </si>
   <si>
-    <t>DI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DI2</t>
-  </si>
-  <si>
-    <t>DI3</t>
-  </si>
-  <si>
-    <t>DI4</t>
-  </si>
-  <si>
-    <t>DI5</t>
-  </si>
-  <si>
-    <t>DI6</t>
-  </si>
-  <si>
-    <t>DI7</t>
-  </si>
-  <si>
-    <t>DI8</t>
+    <t>DO9</t>
+  </si>
+  <si>
+    <t>DO10</t>
+  </si>
+  <si>
+    <t>DO11</t>
+  </si>
+  <si>
+    <t>DO12</t>
+  </si>
+  <si>
+    <t>DO13</t>
+  </si>
+  <si>
+    <t>DO14</t>
+  </si>
+  <si>
+    <t>DO15</t>
+  </si>
+  <si>
+    <t>DO16</t>
+  </si>
+  <si>
+    <t>DO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>AO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AO2</t>
@@ -127,107 +276,48 @@
     <t>AO4</t>
   </si>
   <si>
+    <t>AO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>D_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>System.Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI2</t>
-  </si>
-  <si>
-    <t>AI3</t>
-  </si>
-  <si>
-    <t>AI4</t>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>变量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -583,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,16 +684,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -617,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +730,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -663,16 +753,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -686,16 +776,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -709,16 +799,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -732,16 +822,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -755,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -778,16 +868,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -801,16 +891,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -824,16 +914,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -847,16 +937,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -870,16 +960,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -893,16 +983,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -916,16 +1006,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -939,16 +1029,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -962,22 +1052,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,22 +1075,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,22 +1144,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,22 +1167,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,22 +1190,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,22 +1213,344 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>-10</v>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34">
+        <v>32767</v>
+      </c>
+      <c r="G34">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>32767</v>
+      </c>
+      <c r="G35">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36">
+        <v>32767</v>
+      </c>
+      <c r="G36">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37">
+        <v>32767</v>
+      </c>
+      <c r="G37">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38">
+        <v>32767</v>
+      </c>
+      <c r="G38">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39">
+        <v>32767</v>
+      </c>
+      <c r="G39">
+        <v>-32768</v>
       </c>
     </row>
   </sheetData>
